--- a/webroot/ICT/family-spreadsheet.xlsx
+++ b/webroot/ICT/family-spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t xml:space="preserve">This spreadsheet shows you: rows, columns, and formulas.</t>
   </si>
@@ -47,6 +47,9 @@
   </si>
   <si>
     <t xml:space="preserve">Daniel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bob</t>
   </si>
 </sst>
 </file>
@@ -61,6 +64,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -81,12 +85,14 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -164,7 +170,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.12109375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,17 +225,26 @@
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">AVERAGE(B:B)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>10</v>
+      </c>
       <c r="D6" s="1" t="n">
         <f aca="false">B6+C6</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/webroot/ICT/family-spreadsheet.xlsx
+++ b/webroot/ICT/family-spreadsheet.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">This spreadsheet shows you: rows, columns, and formulas.</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t xml:space="preserve">Daniel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bob</t>
   </si>
 </sst>
 </file>
@@ -64,7 +61,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -85,14 +81,12 @@
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="14"/>
       <name val="Arial"/>
       <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -170,7 +164,7 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="27.12109375" defaultRowHeight="17.35" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -225,26 +219,17 @@
       </c>
       <c r="F5" s="1" t="n">
         <f aca="false">AVERAGE(B:B)</f>
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G5" s="1" t="n">
         <f aca="false">AVERAGE(C:C)</f>
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1" t="n">
-        <v>10</v>
-      </c>
       <c r="D6" s="1" t="n">
         <f aca="false">B6+C6</f>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
